--- a/server12/users/admin2/2017_10_23_1/report_phase1.xlsx
+++ b/server12/users/admin2/2017_10_23_1/report_phase1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="360">
   <si>
     <t xml:space="preserve">商业价值</t>
   </si>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">8,744,187</t>
   </si>
   <si>
-    <t xml:space="preserve">9,816,031</t>
+    <t xml:space="preserve">5,573,909</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">3,875,789</t>
   </si>
   <si>
-    <t xml:space="preserve">4,190,547</t>
+    <t xml:space="preserve">2,694,836</t>
   </si>
   <si>
     <t xml:space="preserve">团队能力(指数)</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">59</t>
   </si>
   <si>
-    <t xml:space="preserve">64</t>
+    <t xml:space="preserve">60</t>
   </si>
   <si>
     <t xml:space="preserve">得分</t>
   </si>
   <si>
-    <t xml:space="preserve">79</t>
+    <t xml:space="preserve">19</t>
   </si>
   <si>
     <t xml:space="preserve">累计得分</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">1,803,715</t>
   </si>
   <si>
-    <t xml:space="preserve">2,066,437</t>
+    <t xml:space="preserve">1,359,042</t>
   </si>
   <si>
     <t xml:space="preserve">军区医院</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">658,681</t>
   </si>
   <si>
-    <t xml:space="preserve">707,216</t>
+    <t xml:space="preserve">514,992</t>
   </si>
   <si>
     <t xml:space="preserve">中日医院</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">1,214,440</t>
   </si>
   <si>
-    <t xml:space="preserve">1,350,489</t>
+    <t xml:space="preserve">1,003,582</t>
   </si>
   <si>
     <t xml:space="preserve">铁路医院</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">1,066,556</t>
   </si>
   <si>
-    <t xml:space="preserve">1,192,776</t>
+    <t xml:space="preserve">910,104</t>
   </si>
   <si>
     <t xml:space="preserve">海港医院</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">402,807</t>
   </si>
   <si>
-    <t xml:space="preserve">445,465</t>
+    <t xml:space="preserve">335,629</t>
   </si>
   <si>
     <t xml:space="preserve">第六医院</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">659,200</t>
   </si>
   <si>
-    <t xml:space="preserve">706,613</t>
+    <t xml:space="preserve">257,600</t>
   </si>
   <si>
     <t xml:space="preserve">小营医院</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">683,961</t>
   </si>
   <si>
-    <t xml:space="preserve">757,071</t>
+    <t xml:space="preserve">244,400</t>
   </si>
   <si>
     <t xml:space="preserve">光华医院</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">189,935</t>
   </si>
   <si>
-    <t xml:space="preserve">192,997</t>
+    <t xml:space="preserve">86,000</t>
   </si>
   <si>
     <t xml:space="preserve">西河医院</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">163,138</t>
   </si>
   <si>
-    <t xml:space="preserve">166,790</t>
+    <t xml:space="preserve">78,560</t>
   </si>
   <si>
     <t xml:space="preserve">大学医院</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">1,901,754</t>
   </si>
   <si>
-    <t xml:space="preserve">2,230,177</t>
+    <t xml:space="preserve">784,000</t>
   </si>
   <si>
     <t xml:space="preserve">时间分配</t>
@@ -203,10 +203,7 @@
     <t xml:space="preserve">产品培训(天)</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">团队会议(天)</t>
@@ -215,144 +212,117 @@
     <t xml:space="preserve">医院拜访(天)</t>
   </si>
   <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
+    <t xml:space="preserve">总工作时间(天)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">各项指标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当期产品知识(指数)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前期产品知识(指数)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当期经验</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前期经验</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当期销售技巧(指数)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前期销售技巧(指数)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当期动力值(指数)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
   </si>
   <si>
     <t xml:space="preserve">87</t>
   </si>
   <si>
-    <t xml:space="preserve">总工作时间(天)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">各项指标</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当期产品知识(指数)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前期产品知识(指数)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当期经验</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前期经验</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当期销售技巧(指数)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前期销售技巧(指数)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当期动力值(指数)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
     <t xml:space="preserve">前期动力值(指数)</t>
   </si>
   <si>
@@ -380,33 +350,21 @@
     <t xml:space="preserve">绩效奖金(元)</t>
   </si>
   <si>
-    <t xml:space="preserve">336,615</t>
+    <t xml:space="preserve">200,662</t>
   </si>
   <si>
     <t xml:space="preserve">能力辅导(天)</t>
   </si>
   <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
     <t xml:space="preserve">经理随访(天)</t>
   </si>
   <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
     <t xml:space="preserve">KPI分析(天)</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
     <t xml:space="preserve">行政工作(天)</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
     <t xml:space="preserve">医院</t>
   </si>
   <si>
@@ -428,37 +386,16 @@
     <t xml:space="preserve">销售代表</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">计划时间分配(天)</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9</t>
-  </si>
-  <si>
     <t xml:space="preserve">实际时间分配(天)</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7</t>
+    <t xml:space="preserve">0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98</t>
   </si>
   <si>
     <t xml:space="preserve">利润贡献 每产品(总)</t>
@@ -467,25 +404,25 @@
     <t xml:space="preserve">销售金额(元)</t>
   </si>
   <si>
-    <t xml:space="preserve">7,320,312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,747,963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">747,756</t>
+    <t xml:space="preserve">4,399,349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">784,960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">389,600</t>
   </si>
   <si>
     <t xml:space="preserve">生产成本(元)</t>
   </si>
   <si>
-    <t xml:space="preserve">3,619,088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">833,621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">236,160</t>
+    <t xml:space="preserve">2,174,964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">374,387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123,060</t>
   </si>
   <si>
     <t xml:space="preserve">生产成本(%)</t>
@@ -494,730 +431,532 @@
     <t xml:space="preserve">49.44</t>
   </si>
   <si>
+    <t xml:space="preserve">47.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利润贡献(元)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,224,385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">410,573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266,540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利润贡献(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利润贡献 (总体)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金额(元)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">占比(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">销售额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生产成本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,672,411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推广费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">员工奖金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利润贡献</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利润贡献 每客户 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">指标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">总体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">销售额(元)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,047,042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">517,660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76,322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">641,982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推广费用预算(元)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推广费用预算(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">523,382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83,678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">711,060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">410,992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203,192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38,161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">248,943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">207,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41,839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16,410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266,049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">883,582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">436,832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45,787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490,209</t>
+  </si>
+  <si>
     <t xml:space="preserve">47.69</t>
   </si>
   <si>
-    <t xml:space="preserve">31.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">利润贡献(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,701,224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">914,342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">511,596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">利润贡献(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.56</t>
+    <t xml:space="preserve">48.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">446,750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50,213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">513,373</t>
   </si>
   <si>
     <t xml:space="preserve">52.31</t>
   </si>
   <si>
-    <t xml:space="preserve">68.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">利润贡献 (总体)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金额(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">占比(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">销售额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生产成本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,688,869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">推广费用</t>
+    <t xml:space="preserve">51.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">766,104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">378,752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">439,689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">387,352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32,850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">470,415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">271,629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134,288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162,206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137,341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173,423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57,600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88,968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27,466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122,764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91,032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134,836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74,140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116,861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75,860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127,539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26,708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41,461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27,292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44,539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34,560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17,776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16,492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41,772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.17</t>
   </si>
   <si>
     <t xml:space="preserve">600,000</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">员工奖金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">利润贡献</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">利润贡献 每客户 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">指标</t>
-  </si>
-  <si>
-    <t xml:space="preserve">总体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">销售额(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,328,602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">372,085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">365,750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">656,832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177,444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115,500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">949,776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">推广费用预算(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">推广费用预算(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">647,770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170,641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238,250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,056,661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490,980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176,387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39,849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">242,748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84,134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">339,452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">224,232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68,253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307,764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,084,692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230,060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35,737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">536,272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109,709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">657,261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">524,420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96,351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">633,228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">914,486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202,497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75,793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">452,100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96,565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">572,605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">438,386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81,932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39,853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">560,171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">312,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108,710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24,755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154,264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51,832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">213,926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133,736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32,878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171,539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">552,873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122,300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31,440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">273,328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58,342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">341,600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255,545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39,958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">305,013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">556,661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179,258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">275,220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85,498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">367,408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257,441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69,760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">329,663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117,924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69,853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58,300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33,325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93,275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">229.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35,624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8,430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39,722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-161.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71,188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83,087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35,200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39,618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78,778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19,469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3,445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28,012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,890,906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203,726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135,545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">934,824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97,154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42,810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,074,788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">932,082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82,572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80,735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,095,389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.12</t>
+    <t xml:space="preserve">296,648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49,600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">371,508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">303,352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54,400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54,740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">412,492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.61</t>
   </si>
   <si>
     <t xml:space="preserve">销售额和数量/客户</t>
@@ -1241,247 +980,124 @@
     <t xml:space="preserve">销售额达成率</t>
   </si>
   <si>
-    <t xml:space="preserve">1,784,199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">262,722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.57%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.82%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">605,174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48,535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.86%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,087,761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136,049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.15%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,036,503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126,220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.83%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.08%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">320,912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42,658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.59%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.81%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">702,094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47,413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.64%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">597,721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73,110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.69%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.66%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65,784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">293.38%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208,937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.83%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,072,305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">328,423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.27%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.62%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,481,390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,071,844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.26%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.74%</t>
+    <t xml:space="preserve">-444,673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.65%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inf%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-143,689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.81%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-210,858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17.36%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-156,452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14.67%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-67,178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16.68%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-401,600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-60.92%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-439,561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-64.27%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-103,935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-54.72%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-84,578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-51.84%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1,117,754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-58.77%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3,170,278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-36.26%</t>
   </si>
   <si>
     <t xml:space="preserve">销售额和数量/代表</t>
   </si>
   <si>
-    <t xml:space="preserve">2,389,373</t>
-  </si>
-  <si>
     <t xml:space="preserve">1,725,237</t>
   </si>
   <si>
-    <t xml:space="preserve">2,773,653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.08%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,124,264</t>
-  </si>
-  <si>
     <t xml:space="preserve">2,064,892</t>
   </si>
   <si>
-    <t xml:space="preserve">2,543,265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.72%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,023,006</t>
-  </si>
-  <si>
     <t xml:space="preserve">1,343,161</t>
   </si>
   <si>
-    <t xml:space="preserve">1,152,078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.62%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">663,505</t>
-  </si>
-  <si>
     <t xml:space="preserve">1,617,247</t>
   </si>
   <si>
-    <t xml:space="preserve">950,068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143.19%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,281,242</t>
-  </si>
-  <si>
     <t xml:space="preserve">1,993,650</t>
   </si>
   <si>
-    <t xml:space="preserve">2,396,967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.07%</t>
+    <t xml:space="preserve">3,379,349</t>
   </si>
   <si>
     <t xml:space="preserve">销售额和数量/产品</t>
   </si>
   <si>
-    <t xml:space="preserve">6,647,013</t>
-  </si>
-  <si>
     <t xml:space="preserve">6,514,627</t>
   </si>
   <si>
-    <t xml:space="preserve">805,685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.37%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.13%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,200,485</t>
+    <t xml:space="preserve">-2,115,278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.47%</t>
   </si>
   <si>
     <t xml:space="preserve">1,514,803</t>
   </si>
   <si>
-    <t xml:space="preserve">233,160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.39%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">633,892</t>
+    <t xml:space="preserve">-729,843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-48.18%</t>
   </si>
   <si>
     <t xml:space="preserve">714,757</t>
   </si>
   <si>
-    <t xml:space="preserve">32,999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.96%</t>
+    <t xml:space="preserve">-325,157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-45.49%</t>
   </si>
 </sst>
 </file>
@@ -2388,21 +2004,21 @@
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -2422,47 +2038,47 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -2488,162 +2104,162 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
         <v>71</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" t="s">
         <v>72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2668,13 +2284,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
@@ -2682,10 +2298,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
@@ -2696,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
@@ -2704,23 +2320,23 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
@@ -2728,26 +2344,26 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2775,22 +2391,22 @@
         <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
@@ -2801,19 +2417,19 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -2821,19 +2437,19 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -2841,19 +2457,19 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -2861,19 +2477,19 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -2881,19 +2497,19 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -2901,19 +2517,19 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -2921,19 +2537,19 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -2941,19 +2557,19 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -2961,19 +2577,19 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -2981,19 +2597,19 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
@@ -3001,19 +2617,19 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -3021,19 +2637,19 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -3041,19 +2657,19 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
@@ -3061,19 +2677,19 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
@@ -3081,19 +2697,19 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -3101,19 +2717,19 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -3121,19 +2737,19 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
@@ -3141,19 +2757,19 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
@@ -3161,19 +2777,19 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -3181,19 +2797,19 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
@@ -3201,19 +2817,19 @@
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
@@ -3221,19 +2837,19 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -3241,19 +2857,19 @@
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="G24" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
@@ -3261,19 +2877,19 @@
         <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
@@ -3281,19 +2897,19 @@
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27">
@@ -3301,19 +2917,19 @@
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28">
@@ -3321,19 +2937,19 @@
         <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="F28" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="G28" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29">
@@ -3341,19 +2957,19 @@
         <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G29" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
@@ -3361,19 +2977,19 @@
         <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="G30" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31">
@@ -3381,19 +2997,19 @@
         <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="F31" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="G31" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3416,22 +3032,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
@@ -3439,101 +3055,101 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9">
@@ -3541,57 +3157,57 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3616,28 +3232,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="H1" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">
@@ -3648,19 +3264,19 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -3671,22 +3287,22 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
@@ -3694,22 +3310,22 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
@@ -3717,22 +3333,22 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
@@ -3740,22 +3356,22 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7">
@@ -3763,22 +3379,22 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="F7" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="G7" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8">
@@ -3786,22 +3402,22 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="G8" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9">
@@ -3809,19 +3425,19 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" t="s">
         <v>185</v>
       </c>
-      <c r="D9" t="s">
-        <v>211</v>
-      </c>
       <c r="E9" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F9" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="G9" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -3832,22 +3448,22 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="F10" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11">
@@ -3855,22 +3471,22 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="G11" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12">
@@ -3878,22 +3494,22 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>197</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -3901,22 +3517,22 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>223</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -3924,22 +3540,22 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="E14" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="F14" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="G14" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15">
@@ -3947,22 +3563,22 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="E15" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="F15" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="G15" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H15" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16">
@@ -3970,19 +3586,19 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D16" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="E16" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="F16" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="G16" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H16" t="s">
         <v>29</v>
@@ -3993,22 +3609,22 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="E17" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="F17" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18">
@@ -4016,22 +3632,22 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="F18" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19">
@@ -4039,22 +3655,22 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H19" t="s">
-        <v>197</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
@@ -4062,22 +3678,22 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="D20" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>242</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>243</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
-        <v>244</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -4085,22 +3701,22 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D21" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="E21" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="F21" t="s">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
@@ -4108,22 +3724,22 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D22" t="s">
-        <v>249</v>
+        <v>144</v>
       </c>
       <c r="E22" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="F22" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H22" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23">
@@ -4131,19 +3747,19 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D23" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="E23" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="F23" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
@@ -4154,22 +3770,22 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="E24" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="F24" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="G24" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25">
@@ -4177,22 +3793,22 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="F25" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="G25" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26">
@@ -4200,22 +3816,22 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D26" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
-        <v>197</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27">
@@ -4223,22 +3839,22 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="D27" t="s">
-        <v>262</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>263</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>264</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H27" t="s">
-        <v>265</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28">
@@ -4246,22 +3862,22 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="E28" t="s">
-        <v>267</v>
+        <v>208</v>
       </c>
       <c r="F28" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="G28" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H28" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29">
@@ -4269,22 +3885,22 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>270</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
       <c r="F29" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="G29" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H29" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30">
@@ -4292,19 +3908,19 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D30" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="E30" t="s">
-        <v>275</v>
+        <v>170</v>
       </c>
       <c r="F30" t="s">
-        <v>276</v>
+        <v>224</v>
       </c>
       <c r="G30" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H30" t="s">
         <v>35</v>
@@ -4315,22 +3931,22 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
-        <v>277</v>
+        <v>225</v>
       </c>
       <c r="E31" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="F31" t="s">
-        <v>279</v>
+        <v>227</v>
       </c>
       <c r="G31" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H31" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32">
@@ -4338,22 +3954,22 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E32" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="F32" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H32" t="s">
-        <v>283</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33">
@@ -4361,22 +3977,22 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D33" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="G33" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H33" t="s">
-        <v>197</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34">
@@ -4384,22 +4000,22 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="D34" t="s">
-        <v>284</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>285</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>286</v>
+        <v>61</v>
       </c>
       <c r="G34" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H34" t="s">
-        <v>287</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35">
@@ -4407,22 +4023,22 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>288</v>
+        <v>232</v>
       </c>
       <c r="E35" t="s">
-        <v>289</v>
+        <v>233</v>
       </c>
       <c r="F35" t="s">
-        <v>290</v>
+        <v>234</v>
       </c>
       <c r="G35" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H35" t="s">
-        <v>291</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36">
@@ -4430,22 +4046,22 @@
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s">
-        <v>292</v>
+        <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="F36" t="s">
-        <v>294</v>
+        <v>237</v>
       </c>
       <c r="G36" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H36" t="s">
-        <v>295</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37">
@@ -4453,19 +4069,19 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D37" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="E37" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="F37" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="G37" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H37" t="s">
         <v>38</v>
@@ -4476,22 +4092,22 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="E38" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="F38" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="G38" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H38" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39">
@@ -4499,22 +4115,22 @@
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>246</v>
       </c>
       <c r="E39" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="F39" t="s">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="G39" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H39" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40">
@@ -4522,22 +4138,22 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F40" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="G40" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H40" t="s">
-        <v>197</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41">
@@ -4545,22 +4161,22 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="D41" t="s">
-        <v>304</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>305</v>
+        <v>61</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
+        <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H41" t="s">
-        <v>307</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42">
@@ -4568,22 +4184,22 @@
         <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D42" t="s">
-        <v>308</v>
+        <v>249</v>
       </c>
       <c r="E42" t="s">
-        <v>309</v>
+        <v>250</v>
       </c>
       <c r="F42" t="s">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="G42" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H42" t="s">
-        <v>311</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43">
@@ -4591,22 +4207,22 @@
         <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
-        <v>312</v>
+        <v>253</v>
       </c>
       <c r="E43" t="s">
-        <v>313</v>
+        <v>184</v>
       </c>
       <c r="F43" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="G43" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H43" t="s">
-        <v>315</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44">
@@ -4614,19 +4230,19 @@
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D44" t="s">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="E44" t="s">
-        <v>317</v>
+        <v>186</v>
       </c>
       <c r="F44" t="s">
-        <v>318</v>
+        <v>256</v>
       </c>
       <c r="G44" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H44" t="s">
         <v>41</v>
@@ -4637,22 +4253,22 @@
         <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D45" t="s">
-        <v>319</v>
+        <v>257</v>
       </c>
       <c r="E45" t="s">
-        <v>320</v>
+        <v>189</v>
       </c>
       <c r="F45" t="s">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="G45" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H45" t="s">
-        <v>322</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46">
@@ -4660,22 +4276,22 @@
         <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
+        <v>246</v>
       </c>
       <c r="E46" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="F46" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="G46" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H46" t="s">
-        <v>323</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47">
@@ -4683,22 +4299,22 @@
         <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D47" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="E47" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F47" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="G47" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H47" t="s">
-        <v>197</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48">
@@ -4706,22 +4322,22 @@
         <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="D48" t="s">
-        <v>324</v>
+        <v>61</v>
       </c>
       <c r="E48" t="s">
-        <v>325</v>
+        <v>61</v>
       </c>
       <c r="F48" t="s">
-        <v>326</v>
+        <v>61</v>
       </c>
       <c r="G48" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H48" t="s">
-        <v>327</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49">
@@ -4729,22 +4345,22 @@
         <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D49" t="s">
-        <v>328</v>
+        <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>329</v>
+        <v>195</v>
       </c>
       <c r="F49" t="s">
-        <v>330</v>
+        <v>263</v>
       </c>
       <c r="G49" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H49" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50">
@@ -4752,22 +4368,22 @@
         <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D50" t="s">
-        <v>332</v>
+        <v>253</v>
       </c>
       <c r="E50" t="s">
-        <v>333</v>
+        <v>145</v>
       </c>
       <c r="F50" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="G50" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H50" t="s">
-        <v>335</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51">
@@ -4775,19 +4391,19 @@
         <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D51" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="E51" t="s">
-        <v>337</v>
+        <v>268</v>
       </c>
       <c r="F51" t="s">
-        <v>338</v>
+        <v>269</v>
       </c>
       <c r="G51" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H51" t="s">
         <v>44</v>
@@ -4798,22 +4414,22 @@
         <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D52" t="s">
-        <v>339</v>
+        <v>270</v>
       </c>
       <c r="E52" t="s">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="F52" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="G52" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H52" t="s">
-        <v>342</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53">
@@ -4821,22 +4437,22 @@
         <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="E53" t="s">
-        <v>343</v>
+        <v>247</v>
       </c>
       <c r="F53" t="s">
-        <v>344</v>
+        <v>275</v>
       </c>
       <c r="G53" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H53" t="s">
-        <v>345</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54">
@@ -4844,22 +4460,22 @@
         <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D54" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="E54" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F54" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="G54" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H54" t="s">
-        <v>197</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55">
@@ -4867,22 +4483,22 @@
         <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="D55" t="s">
-        <v>346</v>
+        <v>61</v>
       </c>
       <c r="E55" t="s">
-        <v>347</v>
+        <v>61</v>
       </c>
       <c r="F55" t="s">
-        <v>348</v>
+        <v>61</v>
       </c>
       <c r="G55" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H55" t="s">
-        <v>349</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56">
@@ -4890,22 +4506,22 @@
         <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D56" t="s">
-        <v>350</v>
+        <v>277</v>
       </c>
       <c r="E56" t="s">
-        <v>351</v>
+        <v>278</v>
       </c>
       <c r="F56" t="s">
-        <v>352</v>
+        <v>279</v>
       </c>
       <c r="G56" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H56" t="s">
-        <v>353</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57">
@@ -4913,22 +4529,22 @@
         <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D57" t="s">
-        <v>354</v>
+        <v>281</v>
       </c>
       <c r="E57" t="s">
-        <v>355</v>
+        <v>184</v>
       </c>
       <c r="F57" t="s">
-        <v>356</v>
+        <v>282</v>
       </c>
       <c r="G57" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H57" t="s">
-        <v>357</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58">
@@ -4936,19 +4552,19 @@
         <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D58" t="s">
-        <v>358</v>
+        <v>284</v>
       </c>
       <c r="E58" t="s">
-        <v>359</v>
+        <v>285</v>
       </c>
       <c r="F58" t="s">
-        <v>360</v>
+        <v>286</v>
       </c>
       <c r="G58" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H58" t="s">
         <v>47</v>
@@ -4959,22 +4575,22 @@
         <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D59" t="s">
-        <v>361</v>
+        <v>287</v>
       </c>
       <c r="E59" t="s">
-        <v>362</v>
+        <v>288</v>
       </c>
       <c r="F59" t="s">
-        <v>363</v>
+        <v>289</v>
       </c>
       <c r="G59" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H59" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60">
@@ -4982,22 +4598,22 @@
         <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>365</v>
+        <v>291</v>
       </c>
       <c r="E60" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="F60" t="s">
-        <v>366</v>
+        <v>230</v>
       </c>
       <c r="G60" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H60" t="s">
-        <v>367</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61">
@@ -5005,22 +4621,22 @@
         <v>45</v>
       </c>
       <c r="C61" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D61" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="E61" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F61" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="G61" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H61" t="s">
-        <v>197</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62">
@@ -5028,22 +4644,22 @@
         <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="D62" t="s">
-        <v>368</v>
+        <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>369</v>
+        <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>370</v>
+        <v>61</v>
       </c>
       <c r="G62" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H62" t="s">
-        <v>371</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63">
@@ -5051,22 +4667,22 @@
         <v>45</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D63" t="s">
-        <v>372</v>
+        <v>294</v>
       </c>
       <c r="E63" t="s">
-        <v>373</v>
+        <v>295</v>
       </c>
       <c r="F63" t="s">
-        <v>374</v>
+        <v>296</v>
       </c>
       <c r="G63" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H63" t="s">
-        <v>375</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64">
@@ -5074,22 +4690,22 @@
         <v>45</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D64" t="s">
-        <v>376</v>
+        <v>298</v>
       </c>
       <c r="E64" t="s">
-        <v>377</v>
+        <v>299</v>
       </c>
       <c r="F64" t="s">
-        <v>378</v>
+        <v>237</v>
       </c>
       <c r="G64" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H64" t="s">
-        <v>379</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65">
@@ -5097,19 +4713,19 @@
         <v>48</v>
       </c>
       <c r="C65" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D65" t="s">
-        <v>380</v>
+        <v>301</v>
       </c>
       <c r="E65" t="s">
-        <v>381</v>
+        <v>180</v>
       </c>
       <c r="F65" t="s">
-        <v>382</v>
+        <v>186</v>
       </c>
       <c r="G65" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H65" t="s">
         <v>50</v>
@@ -5120,22 +4736,22 @@
         <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D66" t="s">
-        <v>383</v>
+        <v>302</v>
       </c>
       <c r="E66" t="s">
-        <v>384</v>
+        <v>303</v>
       </c>
       <c r="F66" t="s">
-        <v>385</v>
+        <v>304</v>
       </c>
       <c r="G66" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H66" t="s">
-        <v>386</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67">
@@ -5143,22 +4759,22 @@
         <v>48</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D67" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E67" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="F67" t="s">
-        <v>159</v>
+        <v>306</v>
       </c>
       <c r="G67" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H67" t="s">
-        <v>387</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68">
@@ -5166,22 +4782,22 @@
         <v>48</v>
       </c>
       <c r="C68" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D68" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="E68" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F68" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="G68" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H68" t="s">
-        <v>197</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69">
@@ -5189,22 +4805,22 @@
         <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="D69" t="s">
-        <v>388</v>
+        <v>61</v>
       </c>
       <c r="E69" t="s">
-        <v>389</v>
+        <v>61</v>
       </c>
       <c r="F69" t="s">
-        <v>390</v>
+        <v>61</v>
       </c>
       <c r="G69" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H69" t="s">
-        <v>391</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70">
@@ -5212,22 +4828,22 @@
         <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D70" t="s">
-        <v>392</v>
+        <v>308</v>
       </c>
       <c r="E70" t="s">
-        <v>393</v>
+        <v>309</v>
       </c>
       <c r="F70" t="s">
-        <v>394</v>
+        <v>310</v>
       </c>
       <c r="G70" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H70" t="s">
-        <v>395</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71">
@@ -5235,22 +4851,22 @@
         <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D71" t="s">
-        <v>396</v>
+        <v>144</v>
       </c>
       <c r="E71" t="s">
-        <v>397</v>
+        <v>210</v>
       </c>
       <c r="F71" t="s">
-        <v>398</v>
+        <v>183</v>
       </c>
       <c r="G71" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H71" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -5273,28 +4889,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="D1" t="s">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="E1" t="s">
-        <v>403</v>
+        <v>316</v>
       </c>
       <c r="F1" t="s">
-        <v>404</v>
+        <v>317</v>
       </c>
       <c r="G1" t="s">
-        <v>405</v>
+        <v>318</v>
       </c>
       <c r="H1" t="s">
-        <v>406</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2">
@@ -5305,7 +4921,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>407</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -5314,13 +4930,13 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>408</v>
+        <v>320</v>
       </c>
       <c r="G2" t="s">
-        <v>409</v>
+        <v>321</v>
       </c>
       <c r="H2" t="s">
-        <v>410</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3">
@@ -5328,7 +4944,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>411</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -5337,13 +4953,13 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>412</v>
+        <v>323</v>
       </c>
       <c r="G3" t="s">
-        <v>413</v>
+        <v>324</v>
       </c>
       <c r="H3" t="s">
-        <v>414</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4">
@@ -5351,7 +4967,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>415</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -5360,13 +4976,13 @@
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>416</v>
+        <v>325</v>
       </c>
       <c r="G4" t="s">
-        <v>417</v>
+        <v>326</v>
       </c>
       <c r="H4" t="s">
-        <v>418</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5">
@@ -5374,7 +4990,7 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>419</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -5383,13 +4999,13 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>420</v>
+        <v>327</v>
       </c>
       <c r="G5" t="s">
-        <v>421</v>
+        <v>328</v>
       </c>
       <c r="H5" t="s">
-        <v>422</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6">
@@ -5397,7 +5013,7 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>423</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -5406,13 +5022,13 @@
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>424</v>
+        <v>329</v>
       </c>
       <c r="G6" t="s">
-        <v>425</v>
+        <v>330</v>
       </c>
       <c r="H6" t="s">
-        <v>426</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7">
@@ -5420,7 +5036,7 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>427</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
@@ -5429,13 +5045,13 @@
         <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>428</v>
+        <v>331</v>
       </c>
       <c r="G7" t="s">
-        <v>429</v>
+        <v>332</v>
       </c>
       <c r="H7" t="s">
-        <v>430</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8">
@@ -5443,7 +5059,7 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>431</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
@@ -5452,13 +5068,13 @@
         <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>432</v>
+        <v>333</v>
       </c>
       <c r="G8" t="s">
-        <v>433</v>
+        <v>334</v>
       </c>
       <c r="H8" t="s">
-        <v>434</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9">
@@ -5466,7 +5082,7 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>435</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
@@ -5475,13 +5091,13 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>436</v>
+        <v>335</v>
       </c>
       <c r="G9" t="s">
-        <v>437</v>
+        <v>336</v>
       </c>
       <c r="H9" t="s">
-        <v>438</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10">
@@ -5489,7 +5105,7 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>439</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
@@ -5498,13 +5114,13 @@
         <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>440</v>
+        <v>337</v>
       </c>
       <c r="G10" t="s">
-        <v>441</v>
+        <v>338</v>
       </c>
       <c r="H10" t="s">
-        <v>442</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11">
@@ -5512,7 +5128,7 @@
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>443</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
         <v>49</v>
@@ -5521,21 +5137,21 @@
         <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>444</v>
+        <v>339</v>
       </c>
       <c r="G11" t="s">
-        <v>445</v>
+        <v>340</v>
       </c>
       <c r="H11" t="s">
-        <v>446</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
-        <v>447</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -5544,33 +5160,33 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>448</v>
+        <v>341</v>
       </c>
       <c r="G12" t="s">
-        <v>449</v>
+        <v>342</v>
       </c>
       <c r="H12" t="s">
-        <v>450</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="D14" t="s">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="E14" t="s">
-        <v>403</v>
+        <v>316</v>
       </c>
       <c r="F14" t="s">
-        <v>406</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15">
@@ -5581,16 +5197,16 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>452</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>453</v>
+        <v>344</v>
       </c>
       <c r="E15" t="s">
-        <v>454</v>
+        <v>212</v>
       </c>
       <c r="F15" t="s">
-        <v>455</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16">
@@ -5598,16 +5214,16 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>456</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>457</v>
+        <v>345</v>
       </c>
       <c r="E16" t="s">
-        <v>458</v>
+        <v>165</v>
       </c>
       <c r="F16" t="s">
-        <v>459</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17">
@@ -5615,16 +5231,16 @@
         <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>460</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>461</v>
+        <v>346</v>
       </c>
       <c r="E17" t="s">
-        <v>462</v>
+        <v>200</v>
       </c>
       <c r="F17" t="s">
-        <v>463</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18">
@@ -5632,16 +5248,16 @@
         <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>464</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>465</v>
+        <v>347</v>
       </c>
       <c r="E18" t="s">
-        <v>466</v>
+        <v>223</v>
       </c>
       <c r="F18" t="s">
-        <v>467</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19">
@@ -5649,59 +5265,59 @@
         <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>468</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>469</v>
+        <v>348</v>
       </c>
       <c r="E19" t="s">
-        <v>470</v>
+        <v>185</v>
       </c>
       <c r="F19" t="s">
-        <v>471</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>447</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>349</v>
       </c>
       <c r="F20" t="s">
-        <v>450</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>472</v>
+        <v>350</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="D22" t="s">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="E22" t="s">
-        <v>403</v>
+        <v>316</v>
       </c>
       <c r="F22" t="s">
-        <v>404</v>
+        <v>317</v>
       </c>
       <c r="G22" t="s">
-        <v>405</v>
+        <v>318</v>
       </c>
       <c r="H22" t="s">
-        <v>406</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23">
@@ -5709,102 +5325,102 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>473</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>474</v>
+        <v>351</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="F23" t="s">
-        <v>475</v>
+        <v>352</v>
       </c>
       <c r="G23" t="s">
-        <v>476</v>
+        <v>353</v>
       </c>
       <c r="H23" t="s">
-        <v>477</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>478</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>479</v>
+        <v>354</v>
       </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>480</v>
+        <v>355</v>
       </c>
       <c r="G24" t="s">
-        <v>481</v>
+        <v>356</v>
       </c>
       <c r="H24" t="s">
-        <v>482</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>483</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>484</v>
+        <v>357</v>
       </c>
       <c r="E25" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F25" t="s">
-        <v>485</v>
+        <v>358</v>
       </c>
       <c r="G25" t="s">
-        <v>486</v>
+        <v>359</v>
       </c>
       <c r="H25" t="s">
-        <v>487</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="C27" t="s">
-        <v>447</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -5813,13 +5429,13 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>448</v>
+        <v>341</v>
       </c>
       <c r="G27" t="s">
-        <v>449</v>
+        <v>342</v>
       </c>
       <c r="H27" t="s">
-        <v>450</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
